--- a/Torque_magnetico/Actividad2.xlsx
+++ b/Torque_magnetico/Actividad2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\Lab_intermedio\COD-INTERMEDIO-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\Lab_intermedio\COD-INTERMEDIO\Torque_magnetico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D64A1A07-1048-412A-A585-AAC32CFCD15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52588AB0-31EA-4AF0-9BBC-5F4D07E9DADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E21D814D-CE95-405A-8A29-B90F65150BC8}"/>
   </bookViews>
@@ -1436,7 +1436,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
